--- a/TestData/InputData.xlsx
+++ b/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Offshore_Common_User1</t>
   </si>
   <si>
-    <t>oracle123</t>
-  </si>
-  <si>
     <t>Major Category</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Debit Description</t>
   </si>
   <si>
-    <t>Rent Exp Manual JV9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rent paid for the month of </t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>Reveivables Activity</t>
+  </si>
+  <si>
+    <t>Oracle#123</t>
+  </si>
+  <si>
+    <t>Rent Exp Manual JV10</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -659,78 +659,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>30000</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="1">
         <v>43101</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -757,19 +757,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>100007</v>
@@ -821,66 +821,66 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
       <c r="D2">
         <v>3456781</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
       </c>
       <c r="G2">
         <v>1001</v>
@@ -892,13 +892,13 @@
         <v>10001</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -916,13 +916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -932,60 +932,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
       </c>
       <c r="E2">
         <v>10000</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>10000</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1011,19 +1011,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,16 +1031,16 @@
         <v>11001</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
       </c>
       <c r="D2">
         <v>2120</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1068,48 +1068,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
       </c>
       <c r="G2">
         <v>1</v>
